--- a/biology/Histoire de la zoologie et de la botanique/Carroll_Newton_Smith/Carroll_Newton_Smith.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carroll_Newton_Smith/Carroll_Newton_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carroll Newton Smith, né le 5 novembre 1909 à Menlo (Iowa) et mort le 8 novembre 1992 à Gainesville (Floride), est un entomologiste américain[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carroll Newton Smith, né le 5 novembre 1909 à Menlo (Iowa) et mort le 8 novembre 1992 à Gainesville (Floride), est un entomologiste américain.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il poursuit une carrière scientifique dans le domaine de l'entomologie médicale et vétérinaire et effectue des travaux de recherche orientée vers les méthodes biologiques de gestion des arthropodes ravageurs des cultures[2].
-Il devient président de l’Entomological Society of America (ESA) en 1964[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il poursuit une carrière scientifique dans le domaine de l'entomologie médicale et vétérinaire et effectue des travaux de recherche orientée vers les méthodes biologiques de gestion des arthropodes ravageurs des cultures.
+Il devient président de l’Entomological Society of America (ESA) en 1964.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Ray F. Smith, Thomas E. Mittler et Carroll N. Smith (1973). History of Entomology, Annual Reviews Inc. (Palo Alto) : viii + 517 p.  (ISBN 0-8243-2101-4 et 978-0-8243-2101-7)</t>
         </is>
